--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FC193-FC82-B94B-A7CD-05E3EC35EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB67898-EF42-9843-AC30-64F378E8750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50460" yWindow="6940" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50460" yWindow="6360" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>D Venckus Test Sheet</t>
   </si>
@@ -64,20 +75,14 @@
     <t>Test Row 10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Sums</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -98,6 +103,13 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -353,7 +365,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -375,12 +387,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -390,22 +396,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +431,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,7 +1628,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1611,15 +1638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1632,7 +1659,9 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
@@ -1640,270 +1669,276 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>3</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <f>SUM(B5,C5,D5)</f>
+        <v>9</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+      <c r="D8" s="26">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28">
+        <v>8</v>
+      </c>
+      <c r="D9" s="28">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31">
+        <f>SUM(B9,C9,D9)</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
+        <v>2</v>
+      </c>
+      <c r="D10" s="26">
+        <v>3</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2</v>
+      </c>
+      <c r="D11" s="28">
+        <v>3</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB67898-EF42-9843-AC30-64F378E8750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817377C-42C9-074A-8783-589DB3054844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50460" yWindow="6360" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1628,7 +1628,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="26">
         <v>2</v>
@@ -1837,7 +1837,10 @@
       <c r="D12" s="26">
         <v>3</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="31">
+        <f>SUM(B12,C12,D12)</f>
+        <v>13</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
     </row>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDBE4F9-0C6D-A24A-8619-9C7CBDEDABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C59FEB-2B78-CA45-A55E-7062863F2849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50480" yWindow="-2380" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="25">
         <v>2</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E12" s="30">
         <f>SUM(B12,C12,D12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C59FEB-2B78-CA45-A55E-7062863F2849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89112A-EF10-9C49-A8C7-81AB8DF436E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50480" yWindow="-2380" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1628,7 +1628,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25">
         <v>2</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="E12" s="30">
         <f>SUM(B12,C12,D12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89112A-EF10-9C49-A8C7-81AB8DF436E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E2A28-7EA8-B847-BA09-46140ADCA485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50480" yWindow="-2380" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1628,7 +1628,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="27">
         <v>8</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E9" s="30">
         <f>SUM(B9,C9,D9)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -1832,14 +1832,14 @@
         <v>3</v>
       </c>
       <c r="C12" s="25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="25">
         <v>3</v>
       </c>
       <c r="E12" s="30">
         <f>SUM(B12,C12,D12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E2A28-7EA8-B847-BA09-46140ADCA485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB99914-C8B5-7045-8E19-886DEFAAB7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-50480" yWindow="-2380" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1778,14 +1778,14 @@
         <v>4</v>
       </c>
       <c r="C9" s="27">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9" s="27">
         <v>3</v>
       </c>
       <c r="E9" s="30">
         <f>SUM(B9,C9,D9)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB99914-C8B5-7045-8E19-886DEFAAB7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44860053-49CF-1F48-9691-3EEF1DDCC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50480" yWindow="-2380" windowWidth="35840" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-58440" yWindow="-2040" windowWidth="16960" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -427,15 +427,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,7 +1619,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1638,15 +1629,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1659,7 +1650,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4"/>
@@ -1669,16 +1660,19 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="26">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="27">
+        <f>SUM(B3,C3,D3)</f>
+        <v>6</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
@@ -1686,16 +1680,19 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="27">
+        <f>SUM(B4,C4,D4)</f>
+        <v>6</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
@@ -1703,18 +1700,18 @@
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="23">
+        <v>11</v>
+      </c>
+      <c r="C5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <f>SUM(B5,C5,D5)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
@@ -1723,16 +1720,19 @@
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="27">
+        <f>SUM(B6,C6,D6)</f>
+        <v>6</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
@@ -1740,16 +1740,19 @@
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>3</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="27">
+        <f>SUM(B7,C7,D7)</f>
+        <v>6</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
     </row>
@@ -1757,16 +1760,19 @@
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>1</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>3</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="27">
+        <f>SUM(B8,C8,D8)</f>
+        <v>6</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
@@ -1774,18 +1780,18 @@
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26">
-        <v>4</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="23">
+        <v>9</v>
+      </c>
+      <c r="C9" s="24">
         <v>15</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <f>SUM(B9,C9,D9)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -1794,16 +1800,19 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>2</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="27">
+        <f>SUM(B10,C10,D10)</f>
+        <v>6</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
     </row>
@@ -1811,16 +1820,19 @@
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <v>3</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="27">
+        <f>SUM(B11,C11,D11)</f>
+        <v>9</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
     </row>
@@ -1828,16 +1840,16 @@
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>6</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>3</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <f>SUM(B12,C12,D12)</f>
         <v>12</v>
       </c>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44860053-49CF-1F48-9691-3EEF1DDCC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B9C7C-5BC6-5B4E-AA00-FFE52D711DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-58440" yWindow="-2040" windowWidth="16960" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,7 +1619,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1821,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="24">
         <v>2</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E11" s="27">
         <f>SUM(B11,C11,D11)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>

--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debra/UChicago/Excel/laughing-disco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B9C7C-5BC6-5B4E-AA00-FFE52D711DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0FE9A0-B25C-6C4A-9FBA-F9F89091EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-58440" yWindow="-2040" windowWidth="16960" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1619,7 +1619,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1721,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E6" s="27">
         <f>SUM(B6,C6,D6)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
@@ -1761,7 +1761,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="22">
         <v>2</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E8" s="27">
         <f>SUM(B8,C8,D8)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
